--- a/PCB/BOM/BOM.xlsx
+++ b/PCB/BOM/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE36359F-FFA8-4071-BE0F-756410689016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F2BFAF1-569C-46B4-87BC-7EDE718DCD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1410" windowWidth="28485" windowHeight="12840" xr2:uid="{9A1021CD-C423-4295-A5E3-8111474EAC35}"/>
+    <workbookView xWindow="3630" yWindow="1410" windowWidth="28485" windowHeight="12840" xr2:uid="{2FBE9F72-BFFE-4390-842A-84529BC815F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="223">
   <si>
     <t>Fitted</t>
   </si>
@@ -415,7 +415,265 @@
     <t>1469743</t>
   </si>
   <si>
-    <t>R29, R36, R38, R43, R46, R47, R51, R53</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>187k</t>
+  </si>
+  <si>
+    <t>ERJ3EKF1873V</t>
+  </si>
+  <si>
+    <t>2303248</t>
+  </si>
+  <si>
+    <t>R31, R39</t>
+  </si>
+  <si>
+    <t>4k99</t>
+  </si>
+  <si>
+    <t>CRCW06034K99FKEA</t>
+  </si>
+  <si>
+    <t>1652885</t>
+  </si>
+  <si>
+    <t>R37, R48</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>CRCW0603750RFKEA</t>
+  </si>
+  <si>
+    <t>1652900</t>
+  </si>
+  <si>
+    <t>R4, R40, R58</t>
+  </si>
+  <si>
+    <t>115k</t>
+  </si>
+  <si>
+    <t>CRCW0603115KFKEA</t>
+  </si>
+  <si>
+    <t>2138503</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>25k5</t>
+  </si>
+  <si>
+    <t>CRCW060325K5FKEA</t>
+  </si>
+  <si>
+    <t>2138447</t>
+  </si>
+  <si>
+    <t>R7, R10, R54, R55</t>
+  </si>
+  <si>
+    <t>8.2k</t>
+  </si>
+  <si>
+    <t>CRCW06038K20FKEAHP</t>
+  </si>
+  <si>
+    <t>1738917</t>
+  </si>
+  <si>
+    <t>R8, R9</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>CRCW060347K0FKEAHP</t>
+  </si>
+  <si>
+    <t>1738927</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TP_0.3mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>LTC3622HDE-2#PBF</t>
+  </si>
+  <si>
+    <t>DFN-14</t>
+  </si>
+  <si>
+    <t>Buck, 2 Channel, 2.25MHz</t>
+  </si>
+  <si>
+    <t>2483300</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>LDLN015PU18R</t>
+  </si>
+  <si>
+    <t>DFN6</t>
+  </si>
+  <si>
+    <t>2460822</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ATMEGA328PB-MN</t>
+  </si>
+  <si>
+    <t>ATMEL_32M1-A_L</t>
+  </si>
+  <si>
+    <t>8Bit MCU</t>
+  </si>
+  <si>
+    <t>2920865</t>
+  </si>
+  <si>
+    <t>U4, U5</t>
+  </si>
+  <si>
+    <t>SN74LVC2T45DCTR</t>
+  </si>
+  <si>
+    <t>SSOP-8_DCT</t>
+  </si>
+  <si>
+    <t>2854638</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>TSW-102-07-G-S</t>
+  </si>
+  <si>
+    <t>HDR2x1</t>
+  </si>
+  <si>
+    <t>2-Pin, Header, 2.54mm</t>
+  </si>
+  <si>
+    <t>2505044</t>
+  </si>
+  <si>
+    <t>X2, X4</t>
+  </si>
+  <si>
+    <t>22-28-4032</t>
+  </si>
+  <si>
+    <t>HDR3x1</t>
+  </si>
+  <si>
+    <t>3-Pin, Header, 2.54mm</t>
+  </si>
+  <si>
+    <t>2751450</t>
+  </si>
+  <si>
+    <t>X3, X5, X6, X7</t>
+  </si>
+  <si>
+    <t>39-28-1043</t>
+  </si>
+  <si>
+    <t>MOLEX_MINI_FIT_4PIN</t>
+  </si>
+  <si>
+    <t>Header, 4-Pin</t>
+  </si>
+  <si>
+    <t>9732098</t>
+  </si>
+  <si>
+    <t>X8, X9</t>
+  </si>
+  <si>
+    <t>61300621121</t>
+  </si>
+  <si>
+    <t>HDR2X3_1_15_Drill</t>
+  </si>
+  <si>
+    <t>6-Pin, Header, 3x2, Dual row</t>
+  </si>
+  <si>
+    <t>2356131</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABM3B-8.000MHZ-10-1-U-T</t>
+  </si>
+  <si>
+    <t>XTAL_5x3.2mm</t>
+  </si>
+  <si>
+    <t>8MHz, 10ppm, 10pF</t>
+  </si>
+  <si>
+    <t>2467817</t>
+  </si>
+  <si>
+    <t>Fitted, Fitted, Fitted, Fitted, Fitted, Fitted, Not Fitted</t>
+  </si>
+  <si>
+    <t>R34, R35, R41, R44, R45, R52, R57</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEA</t>
+  </si>
+  <si>
+    <t>1469740</t>
+  </si>
+  <si>
+    <t>Fitted, Fitted, Fitted, Not Fitted, Not Fitted</t>
+  </si>
+  <si>
+    <t>FB1, FB2, FB4, FB5, FB6</t>
+  </si>
+  <si>
+    <t>742792097</t>
+  </si>
+  <si>
+    <t>0805_FERRITE</t>
+  </si>
+  <si>
+    <t>Z=1.5k@100MHz, 1A, R=300mOhm</t>
+  </si>
+  <si>
+    <t>1635738</t>
+  </si>
+  <si>
+    <t>Fitted, Not Fitted, Fitted, Fitted, Fitted, Fitted, Fitted, Fitted, Fitted</t>
+  </si>
+  <si>
+    <t>R29, R36, R38, R43, R46, R47, R51, R53, R56</t>
   </si>
   <si>
     <t>0</t>
@@ -425,258 +683,6 @@
   </si>
   <si>
     <t>1469739</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>187k</t>
-  </si>
-  <si>
-    <t>ERJ3EKF1873V</t>
-  </si>
-  <si>
-    <t>2303248</t>
-  </si>
-  <si>
-    <t>R31, R39</t>
-  </si>
-  <si>
-    <t>4k99</t>
-  </si>
-  <si>
-    <t>CRCW06034K99FKEA</t>
-  </si>
-  <si>
-    <t>1652885</t>
-  </si>
-  <si>
-    <t>R34, R35, R40, R41, R44, R45, R52</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>CRCW06031K00FKEA</t>
-  </si>
-  <si>
-    <t>1469740</t>
-  </si>
-  <si>
-    <t>R37, R48</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>CRCW0603750RFKEA</t>
-  </si>
-  <si>
-    <t>1652900</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>115k</t>
-  </si>
-  <si>
-    <t>CRCW0603115KFKEA</t>
-  </si>
-  <si>
-    <t>2138503</t>
-  </si>
-  <si>
-    <t>R5, R6</t>
-  </si>
-  <si>
-    <t>25k5</t>
-  </si>
-  <si>
-    <t>CRCW060325K5FKEA</t>
-  </si>
-  <si>
-    <t>2138447</t>
-  </si>
-  <si>
-    <t>R7, R10</t>
-  </si>
-  <si>
-    <t>8.2k</t>
-  </si>
-  <si>
-    <t>CRCW06038K20FKEAHP</t>
-  </si>
-  <si>
-    <t>1738917</t>
-  </si>
-  <si>
-    <t>R8, R9</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>CRCW060347K0FKEAHP</t>
-  </si>
-  <si>
-    <t>1738927</t>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>TP_0.3mm</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>LTC3622HDE-2#PBF</t>
-  </si>
-  <si>
-    <t>DFN-14</t>
-  </si>
-  <si>
-    <t>Buck, 2 Channel, 2.25MHz</t>
-  </si>
-  <si>
-    <t>2483300</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LDLN015PU18R</t>
-  </si>
-  <si>
-    <t>DFN6</t>
-  </si>
-  <si>
-    <t>2460822</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>ATMEGA328PB-MN</t>
-  </si>
-  <si>
-    <t>ATMEL_32M1-A_L</t>
-  </si>
-  <si>
-    <t>8Bit MCU</t>
-  </si>
-  <si>
-    <t>2920865</t>
-  </si>
-  <si>
-    <t>U4, U5</t>
-  </si>
-  <si>
-    <t>SN74LVC2T45DCTR</t>
-  </si>
-  <si>
-    <t>SSOP-8_DCT</t>
-  </si>
-  <si>
-    <t>2854638</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>TSW-102-07-G-S</t>
-  </si>
-  <si>
-    <t>HDR2x1</t>
-  </si>
-  <si>
-    <t>2-Pin, Header, 2.54mm</t>
-  </si>
-  <si>
-    <t>2505044</t>
-  </si>
-  <si>
-    <t>X2, X4</t>
-  </si>
-  <si>
-    <t>22-28-4032</t>
-  </si>
-  <si>
-    <t>HDR3x1</t>
-  </si>
-  <si>
-    <t>3-Pin, Header, 2.54mm</t>
-  </si>
-  <si>
-    <t>2751450</t>
-  </si>
-  <si>
-    <t>X3, X5, X6, X7</t>
-  </si>
-  <si>
-    <t>39-28-1043</t>
-  </si>
-  <si>
-    <t>MOLEX_MINI_FIT_4PIN</t>
-  </si>
-  <si>
-    <t>Header, 4-Pin</t>
-  </si>
-  <si>
-    <t>9732098</t>
-  </si>
-  <si>
-    <t>X8, X9</t>
-  </si>
-  <si>
-    <t>61300621121</t>
-  </si>
-  <si>
-    <t>HDR2X3_1_15_Drill</t>
-  </si>
-  <si>
-    <t>6-Pin, Header, 3x2, Dual row</t>
-  </si>
-  <si>
-    <t>2356131</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABM3B-8.000MHZ-10-1-U-T</t>
-  </si>
-  <si>
-    <t>XTAL_5x3.2mm</t>
-  </si>
-  <si>
-    <t>8MHz, 10ppm, 10pF</t>
-  </si>
-  <si>
-    <t>2467817</t>
-  </si>
-  <si>
-    <t>Fitted, Fitted, Fitted, Not Fitted, Not Fitted</t>
-  </si>
-  <si>
-    <t>FB1, FB2, FB4, FB5, FB6</t>
-  </si>
-  <si>
-    <t>742792097</t>
-  </si>
-  <si>
-    <t>0805_FERRITE</t>
-  </si>
-  <si>
-    <t>Z=1.5k@100MHz, 1A, R=300mOhm</t>
-  </si>
-  <si>
-    <t>1635738</t>
   </si>
   <si>
     <t>Fitted, Not Fitted, Fitted, Fitted, Not Fitted, Fitted, Fitted, Not Fitted, Fitted, Not Fitted, Fitted, Fitted, Fitted, Fitted, Fitted, Fitted</t>
@@ -1071,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB2B816-30AE-4C96-88E3-92125C0B9203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0D3A0D-0D10-452B-8B9A-60549307A66C}">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1825,7 +1831,7 @@
         <v>130</v>
       </c>
       <c r="D26" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>131</v>
@@ -1854,7 +1860,7 @@
         <v>134</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>135</v>
@@ -1912,7 +1918,7 @@
         <v>142</v>
       </c>
       <c r="D29" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>143</v>
@@ -1970,7 +1976,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>151</v>
@@ -1979,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>152</v>
@@ -2008,7 +2014,7 @@
         <v>77</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>156</v>
@@ -2025,25 +2031,25 @@
         <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>164</v>
@@ -2086,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>166</v>
@@ -2098,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -2118,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>15</v>
@@ -2138,25 +2144,25 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
@@ -2176,16 +2182,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
@@ -2196,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -2205,16 +2211,16 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>15</v>
@@ -2225,25 +2231,25 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>15</v>
@@ -2254,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -2263,16 +2269,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>15</v>
@@ -2283,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
@@ -2309,28 +2315,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>15</v>
@@ -2338,28 +2344,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>15</v>
@@ -2367,28 +2373,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D45" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
@@ -2396,10 +2402,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>91</v>
@@ -2408,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -2417,7 +2423,7 @@
         <v>114</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>15</v>

--- a/PCB/BOM/BOM.xlsx
+++ b/PCB/BOM/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA64E684-05A0-4B8C-952F-50A42E730966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC2C70C-3D75-48F5-BC59-21ECBF4F0E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{551717B1-40D9-4017-98FF-326F524F0745}"/>
+    <workbookView xWindow="5415" yWindow="5415" windowWidth="28800" windowHeight="15435" xr2:uid="{B4F8016B-5E09-4FED-8C56-732E860DB2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <t>ESP8266 ESP-12-E</t>
   </si>
   <si>
-    <t xml:space="preserve">252912268897 </t>
+    <t>252912268897</t>
   </si>
   <si>
     <t>ebay</t>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E4A006-5E23-43F4-8242-61360BF3BE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45338D1-2852-4CB7-BCAA-4C2E23663F66}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2148,7 +2148,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>173</v>
